--- a/Assignment/Group.xlsx
+++ b/Assignment/Group.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RTC\Project\ICT-13-Morning\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCB771F-D452-4D78-82BB-61F58CFA4483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9329BC-7F59-4717-8BDB-695B9977678C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{0C924E17-58C5-4F72-82D8-DCADEDA3C351}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{0C924E17-58C5-4F72-82D8-DCADEDA3C351}"/>
   </bookViews>
   <sheets>
     <sheet name="Group 1" sheetId="1" r:id="rId1"/>
@@ -596,9 +596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F64EEE-5323-4148-921C-8E8C2712D339}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -651,10 +649,10 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -683,10 +681,10 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -715,10 +713,10 @@
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -747,10 +745,10 @@
       <c r="B5" s="1">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -779,10 +777,10 @@
       <c r="B6" s="1">
         <v>101</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -807,8 +805,8 @@
     <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -1054,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4742DBB0-4066-4193-AC6F-89881537A444}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" activeCellId="1" sqref="H4 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2335985-94CA-4F00-BA87-E126329B79AE}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
